--- a/Documentation/Sr_Proj_Schedule_rev3.xlsx
+++ b/Documentation/Sr_Proj_Schedule_rev3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="19140" windowHeight="7416"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19140" windowHeight="7410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -866,29 +866,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1035,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>13</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>22</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1517,7 +1517,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1547,32 +1547,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>31</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>33</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q13" s="20" t="s">
         <v>37</v>
       </c>
@@ -1805,18 +1805,18 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
@@ -1872,13 +1872,15 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="21">
+        <v>5</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -1894,7 +1896,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>28</v>
       </c>
@@ -1916,7 +1918,7 @@
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>29</v>
       </c>
@@ -1938,7 +1940,7 @@
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>30</v>
       </c>
@@ -1960,7 +1962,7 @@
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>31</v>
       </c>
@@ -1984,7 +1986,7 @@
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>32</v>
       </c>
@@ -2006,13 +2008,15 @@
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -2028,27 +2032,27 @@
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q25" s="20" t="s">
         <v>37</v>
       </c>
       <c r="R25" s="8">
         <f>SUM(B18:R24)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>26</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>27</v>
       </c>
@@ -2128,7 +2132,7 @@
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>28</v>
       </c>
@@ -2152,7 +2156,7 @@
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>29</v>
       </c>
@@ -2174,7 +2178,7 @@
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>30</v>
       </c>
@@ -2196,7 +2200,7 @@
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>31</v>
       </c>
@@ -2220,7 +2224,7 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>32</v>
       </c>
@@ -2242,7 +2246,7 @@
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>33</v>
       </c>
@@ -2264,7 +2268,7 @@
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
     </row>
-    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q37" s="20" t="s">
         <v>37</v>
       </c>
@@ -2273,14 +2277,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q40" s="23" t="s">
         <v>37</v>
       </c>
       <c r="R40" s="24">
         <f>SUM(R13+R25+R37)</f>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2300,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Sr_Proj_Schedule_rev3.xlsx
+++ b/Documentation/Sr_Proj_Schedule_rev3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="6" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -265,7 +265,7 @@
     <t>Test Debug Code</t>
   </si>
   <si>
-    <t>Prelim. Design Review </t>
+    <t>Prelim. Design Review</t>
   </si>
   <si>
     <t>First Draft Report</t>
@@ -289,13 +289,13 @@
     <t>Dry Run</t>
   </si>
   <si>
-    <t>Signed Camera Ready Copy of Text </t>
+    <t>Signed Camera Ready Copy of Text</t>
   </si>
   <si>
     <t>Presentation</t>
   </si>
   <si>
-    <t>Time </t>
+    <t>Time</t>
   </si>
   <si>
     <t>Dustin</t>
@@ -455,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
@@ -471,37 +471,23 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left style="thick"/>
       <right style="thick"/>
       <top style="thick"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -531,7 +517,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -564,35 +550,35 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="5" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="6" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="5" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="7" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="6" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -608,7 +594,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="3" fontId="4" numFmtId="165" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -616,15 +602,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="4" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -715,10 +697,8 @@
   </sheetPr>
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="topRight" topLeftCell="B1" xSplit="1" ySplit="0"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="L7" activeCellId="0" pane="topRight" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1408,10 +1388,8 @@
   </sheetPr>
   <dimension ref="A3:R40"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="topRight" topLeftCell="B13" xSplit="1" ySplit="0"/>
-      <selection activeCell="A13" activeCellId="0" pane="topLeft" sqref="A13"/>
-      <selection activeCell="D24" activeCellId="0" pane="topRight" sqref="D24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A12" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1518,7 +1496,7 @@
       <c r="R6" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="7">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="21" t="n">
@@ -1544,7 +1522,7 @@
       <c r="R7" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="21"/>
@@ -1566,7 +1544,7 @@
       <c r="R8" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="9">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="21"/>
@@ -1588,7 +1566,7 @@
       <c r="R9" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="10">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="21"/>
@@ -1612,7 +1590,7 @@
       <c r="R10" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="11">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="21" t="n">
@@ -1636,7 +1614,7 @@
       <c r="R11" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="21"/>
@@ -1658,8 +1636,8 @@
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="Q13" s="17" t="s">
@@ -1761,7 +1739,7 @@
       <c r="R18" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="19">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="21"/>
@@ -1783,7 +1761,7 @@
       <c r="R19" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="20">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="21"/>
@@ -1805,7 +1783,7 @@
       <c r="R20" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="21">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="21"/>
@@ -1827,7 +1805,7 @@
       <c r="R21" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="22">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="21"/>
@@ -1835,7 +1813,9 @@
         <v>4</v>
       </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="21" t="n">
+        <v>3</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -1851,7 +1831,7 @@
       <c r="R22" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="23">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="21"/>
@@ -1873,7 +1853,7 @@
       <c r="R23" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="21"/>
@@ -1881,7 +1861,9 @@
       <c r="D24" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="21" t="n">
+        <v>6</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -1902,7 +1884,7 @@
       </c>
       <c r="R25" s="1" t="n">
         <f aca="false">SUM(B18:R24)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
@@ -1996,7 +1978,7 @@
       <c r="R30" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="31">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="21"/>
@@ -2020,7 +2002,7 @@
       <c r="R31" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="32">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="21"/>
@@ -2042,7 +2024,7 @@
       <c r="R32" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.45" outlineLevel="0" r="33">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="21"/>
@@ -2064,7 +2046,7 @@
       <c r="R33" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="21"/>
@@ -2088,7 +2070,7 @@
       <c r="R34" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="21"/>
@@ -2110,7 +2092,7 @@
       <c r="R35" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="36">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="21"/>
@@ -2141,12 +2123,12 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="40">
-      <c r="Q40" s="24" t="s">
+      <c r="Q40" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="R40" s="25" t="n">
+      <c r="R40" s="24" t="n">
         <f aca="false">SUM(R13+R25+R37)</f>
-        <v>38.5</v>
+        <v>47.5</v>
       </c>
     </row>
   </sheetData>
